--- a/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
+++ b/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
@@ -2003,7 +2003,7 @@
         <v/>
       </c>
       <c r="G21" s="43" t="n">
-        <v>1094940471.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2104,7 +2104,7 @@
         <v/>
       </c>
       <c r="G26" s="43" t="n">
-        <v>2374420240</v>
+        <v>5982332729.59</v>
       </c>
     </row>
     <row r="27">

--- a/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
+++ b/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
@@ -2003,7 +2003,7 @@
         <v/>
       </c>
       <c r="G21" s="43" t="n">
-        <v>0</v>
+        <v>2383121457.31</v>
       </c>
     </row>
     <row r="22">
@@ -2104,7 +2104,7 @@
         <v/>
       </c>
       <c r="G26" s="43" t="n">
-        <v>5982332729.59</v>
+        <v>1644876033.06</v>
       </c>
     </row>
     <row r="27">
